--- a/TP 1/ejercicio1.xlsx
+++ b/TP 1/ejercicio1.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="inciso a" sheetId="1" r:id="rId1"/>
     <sheet name="inciso b" sheetId="2" r:id="rId2"/>
+    <sheet name="inciso c (beneficios)" sheetId="3" r:id="rId3"/>
+    <sheet name="inciso c (costos)" sheetId="4" r:id="rId4"/>
+    <sheet name="inciso d (beneficios)" sheetId="5" r:id="rId5"/>
+    <sheet name="inciso d (costos)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="13">
   <si>
     <t>A1</t>
   </si>
@@ -52,6 +56,9 @@
   <si>
     <t>Respuesta: A1</t>
   </si>
+  <si>
+    <t>A3</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +83,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -104,6 +117,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +145,2044 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Analisis de sensibilidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'inciso d (beneficios)'!$A$15:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (beneficios)'!$B$15:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'inciso d (beneficios)'!$A$15:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (beneficios)'!$C$15:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>A3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (beneficios)'!$D$15:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1657998736"/>
+        <c:axId val="-1657994384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1657998736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1657994384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1657994384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1657998736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Analisis de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> sensibilidad</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'inciso d (costos)'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alfa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (costos)'!$A$14:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'inciso d (costos)'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (costos)'!$B$14:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'inciso d (costos)'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (costos)'!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'inciso d (costos)'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'inciso d (costos)'!$D$14:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1657997104"/>
+        <c:axId val="-1657993296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1657997104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1657993296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1657993296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1657997104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,7 +2690,9 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -657,7 +2723,10 @@
         <f>$B$4*MIN(B2:C2)+(1-$B$4)*MAX(B2:C2)</f>
         <v>2.5</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.5</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -688,7 +2757,10 @@
         <f>$B$4*MIN(B3:C3)+(1-$B$4)*MAX(B3:C3)</f>
         <v>-2.5</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <f>AVERAGE(B3:C3)</f>
+        <v>-2.5</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -715,7 +2787,9 @@
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -752,7 +2826,9 @@
         <f>C1</f>
         <v>F2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -765,13 +2841,22 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="5" t="str">
         <f>A2</f>
         <v>A1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2">
+        <f>B2-MIN(B$2:B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C2-MIN(C$2:C$3)</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <f>MAX(B7:C7)</f>
+        <v>20</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -784,13 +2869,22 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="5" t="str">
         <f>A3</f>
         <v>A2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <f>B3-MIN(B$2:B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C3-MIN(C$2:C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f>MAX(B8:C8)</f>
+        <v>10</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -806,7 +2900,9 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -981,4 +3077,1486 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>MAX(B2:C2)</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>MIN(B2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$B$6*MAX(B2:C2)+(1-$B$6)*MIN(B2:C2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-15</v>
+      </c>
+      <c r="D3">
+        <f>MAX(B3:C3)</f>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>MIN(B3:C3)</f>
+        <v>-15</v>
+      </c>
+      <c r="F3">
+        <f>$B$6*MAX(B3:C3)+(1-$B$6)*MIN(B3:C3)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:C3)</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>MAX(B4:C4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>MIN(B4:C4)</f>
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <f>$B$6*MAX(B4:C4)+(1-$B$6)*MIN(B4:C4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:C4)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="str">
+        <f>LOOKUP(MAX(D2:D3),D2:D3,$A$2:$A$3)</f>
+        <v>A2</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>LOOKUP(MAX(E2:E3),E2:E3,$A$2:$A$3)</f>
+        <v>A1</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>LOOKUP(MAX(F2:F3),F2:F3,$A$2:$A$3)</f>
+        <v>A1</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>LOOKUP(MAX(G2:G3),G2:G3,$A$2:$A$3)</f>
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>B1</f>
+        <v>F1</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>C1</f>
+        <v>F2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="str">
+        <f>A2</f>
+        <v>A1</v>
+      </c>
+      <c r="B9" s="2">
+        <f>MAX(B$2:B$3)-B2</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f>MAX(C$2:C$3)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>MAX(B9:C9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="str">
+        <f>A3</f>
+        <v>A2</v>
+      </c>
+      <c r="B10" s="2">
+        <f>MAX(B$2:B$3)-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f>MAX(C$2:C$3)-C3</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <f>MAX(B10:C10)</f>
+        <v>20</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <f>MAX(B$2:B$3)-B4</f>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <f>MAX(C$2:C$3)-C4</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f>MAX(B11:C11)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <f>MIN(B2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>MAX(B2:C2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>$B$5*MIN(B2:C2)+(1-$B$5)*MAX(B2:C2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-15</v>
+      </c>
+      <c r="D3" s="2">
+        <f>MIN(B3:C3)</f>
+        <v>-15</v>
+      </c>
+      <c r="E3" s="2">
+        <f>MAX(B3:C3)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <f>$B$5*MIN(B3:C3)+(1-$B$5)*MAX(B3:C3)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(B3:C3)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f>MIN(B4:C4)</f>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <f>MAX(B4:C4)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>$B$5*MIN(B4:C4)+(1-$B$5)*MAX(B4:C4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(B4:C4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>B1</f>
+        <v>F1</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>C1</f>
+        <v>F2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="str">
+        <f>A2</f>
+        <v>A1</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B2-MIN(B$2:B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C2-MIN(C$2:C$3)</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <f>MAX(B8:C8)</f>
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="str">
+        <f>A3</f>
+        <v>A2</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B3-MIN(B$2:B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C3-MIN(C$2:C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>MAX(B9:C9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B4-MIN(B$2:B$3)</f>
+        <v>-1</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C4-MIN(C$2:C$3)</f>
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <f>MAX(B10:C10)</f>
+        <v>19</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>MAX(B2:C2)</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>MIN(B2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$B$6*MAX(B2:C2)+(1-$B$6)*MIN(B2:C2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f>MAX(B3:C3)</f>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>MIN(B3:C3)</f>
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <f>$B$6*MAX(B3:C3)+(1-$B$6)*MIN(B3:C3)</f>
+        <v>-1.25</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:C3)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>MAX(B4:C4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>MIN(B4:C4)</f>
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <f>$B$6*MAX(B4:C4)+(1-$B$6)*MIN(B4:C4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(B4:C4)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" s="9" t="str">
+        <f>LOOKUP(MAX(D2:D3),D2:D3,$A$2:$A$3)</f>
+        <v>A2</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>LOOKUP(MAX(E2:E3),E2:E3,$A$2:$A$3)</f>
+        <v>A1</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>LOOKUP(MAX(F2:F3),F2:F3,$A$2:$A$3)</f>
+        <v>A1</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>LOOKUP(MAX(G2:G3),G2:G3,$A$2:$A$3)</f>
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>B1</f>
+        <v>F1</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>C1</f>
+        <v>F2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="str">
+        <f>A2</f>
+        <v>A1</v>
+      </c>
+      <c r="B9" s="2">
+        <f>MAX(B$2:B$3)-B2</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f>MAX(C$2:C$3)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>MAX(B9:C9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="str">
+        <f>A3</f>
+        <v>A2</v>
+      </c>
+      <c r="B10" s="2">
+        <f>MAX(B$2:B$3)-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f>MAX(C$2:C$3)-C3</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <f>MAX(B10:C10)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <f>MAX(B$2:B$3)-B4</f>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <f>MAX(C$2:C$3)-C4</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f>MAX(B11:C11)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <f>MIN(B2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>MAX(B2:C2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>$B$5*MIN(B2:C2)+(1-$B$5)*MAX(B2:C2)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="D3" s="2">
+        <f>MIN(B3:C3)</f>
+        <v>-5</v>
+      </c>
+      <c r="E3" s="2">
+        <f>MAX(B3:C3)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <f>$B$5*MIN(B3:C3)+(1-$B$5)*MAX(B3:C3)</f>
+        <v>6.25</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(B3:C3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f>MIN(B4:C4)</f>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <f>MAX(B4:C4)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>$B$5*MIN(B4:C4)+(1-$B$5)*MAX(B4:C4)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(B4:C4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>B1</f>
+        <v>F1</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>C1</f>
+        <v>F2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="str">
+        <f>A2</f>
+        <v>A1</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B2-MIN(B$2:B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C2-MIN(C$2:C$3)</f>
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <f>MAX(B8:C8)</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="str">
+        <f>A3</f>
+        <v>A2</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B3-MIN(B$2:B$3)</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C3-MIN(C$2:C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <f>MAX(B9:C9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B4-MIN(B$2:B$3)</f>
+        <v>-1</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C4-MIN(C$2:C$3)</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <f>MAX(B10:C10)</f>
+        <v>9</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>